--- a/others/Investment/THS/股票/筹码数据.xlsx
+++ b/others/Investment/THS/股票/筹码数据.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="低位锁定(主力拉伸)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="低位密集(主力建仓)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="双峰形态(高抛低吸)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="高位密集(谨慎入场)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,425 +462,803 @@
           <t>涨跌幅</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>90%集中度</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>筹码形态</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>603599</t>
+          <t>300376</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>广信股份</t>
+          <t>ST易事特</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.76</v>
+        <v>3.73</v>
       </c>
       <c r="D2" t="n">
-        <v>29.8917814603149</v>
+        <v>30.88789245877864</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0772</v>
+        <v>-1.847</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44.18604651162791</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>300518</t>
+          <t>002336</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>新迅达</t>
+          <t>*ST人乐</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.3</v>
+        <v>4.8</v>
       </c>
       <c r="D3" t="n">
-        <v>29.69299911440567</v>
+        <v>58.72712111412363</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3664</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>301261</t>
+          <t>300108</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>恒工精密</t>
+          <t>*ST吉药</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.04</v>
+        <v>1.35</v>
       </c>
       <c r="D4" t="n">
-        <v>29.55638109012739</v>
+        <v>51.5466953286649</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1058</v>
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.78494623655913</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>688558</t>
+          <t>605033</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>国盛智科</t>
+          <t>美邦股份</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21.65</v>
+        <v>14.52</v>
       </c>
       <c r="D5" t="n">
-        <v>29.39026244023806</v>
+        <v>99.99999999999979</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6039</v>
+        <v>-0.0897</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.83388338833883</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>301518</t>
+          <t>605198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>长华化学</t>
+          <t>安德利</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17.64</v>
+        <v>27.04</v>
       </c>
       <c r="D6" t="n">
-        <v>29.37512994250613</v>
+        <v>56.39993269580741</v>
       </c>
       <c r="E6" t="n">
-        <v>3.6623</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>000633</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>合金投资</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.34524683709984</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.0719</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>603029</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>天鹅股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>17.76</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.33488680361333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-4.3283</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>600665</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>天地源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>29.08128931277478</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9868</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>688139</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>海尔生物</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>29.069344375469</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.7729</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>002913</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>奥士康</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29.06220290370094</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.9909</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>688161</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>威高骨科</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>26.6</v>
-      </c>
-      <c r="D12" t="n">
-        <v>29.03177424085358</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9044</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>688046</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>药康生物</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="D13" t="n">
-        <v>29.02929051928656</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8668</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>600389</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>江山股份</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>14.92</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28.97230023301438</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.2091</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>605162</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>新中港</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28.95369825465105</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3.1866</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>301035</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>润丰股份</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>49.32</v>
-      </c>
-      <c r="D16" t="n">
-        <v>28.88527394746028</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.6291</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>600961</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>株冶集团</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="D17" t="n">
-        <v>28.85495416260261</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.8593</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>605338</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>巴比食品</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="D18" t="n">
-        <v>28.67352360286963</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.4326</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>301093</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>华兰股份</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="D19" t="n">
-        <v>28.40317159919234</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1.2362</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>000070</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ST特信</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="D20" t="n">
-        <v>28.23912545257907</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2.4715</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>300804</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>广康生化</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="D21" t="n">
-        <v>28.22747372014339</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.0433</v>
+        <v>2.9046</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.24338624338625</v>
+      </c>
+      <c r="G6" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均成本</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>收盘收益</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>90%集中度</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>筹码形态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>300630</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>*ST普利</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.01465994510403</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43.33333333333333</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>688331</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>荣昌生物</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.79741208391479</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-8.6197</v>
+      </c>
+      <c r="F3" t="n">
+        <v>41.47727272727273</v>
+      </c>
+      <c r="G3" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>688276</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>百克生物</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.486697557581498</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.4007</v>
+      </c>
+      <c r="F4" t="n">
+        <v>39.65785381026438</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>300506</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ST名家汇</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.39559052425687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36.91056910569105</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>688356</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>键凯科技</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>61.82</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.175704547217984</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36.74033149171271</v>
+      </c>
+      <c r="G6" t="n">
+        <v>73.04000000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均成本</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>收盘收益</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>90%集中度</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>筹码形态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>*ST合泰</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.73101651799651</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4608</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35.2185089974293</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>688278</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>特宝生物</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60.97</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.42300668901915</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.1591</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.21126760563381</v>
+      </c>
+      <c r="G3" t="n">
+        <v>72.48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>601336</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>新华保险</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45.99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>46.50951981352053</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.5633</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30.38297872340425</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>688126</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>沪硅产业</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20.97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.16240915685714</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28.97196261682243</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>601865</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>福莱特</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.39957826986076</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-2.2649</v>
+      </c>
+      <c r="F6" t="n">
+        <v>26.95883134130146</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.24</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>股票代码</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>平均成本</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>收盘收益</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>90%集中度</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>收盘价</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>筹码形态</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>300972</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>万辰集团</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79.58038535893044</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-5.3481</v>
+      </c>
+      <c r="F2" t="n">
+        <v>52.95902883156298</v>
+      </c>
+      <c r="G2" t="n">
+        <v>184.06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>603822</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>嘉澳环保</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48.72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.14811160591013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.4671</v>
+      </c>
+      <c r="F3" t="n">
+        <v>46.82080924855492</v>
+      </c>
+      <c r="G3" t="n">
+        <v>60.17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>002822</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ST中装</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.12086996748475</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2.0649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>42.58064516129031</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>688608</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>恒玄科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>292.6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.57239429025779</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.8963</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.5287356321839</v>
+      </c>
+      <c r="G5" t="n">
+        <v>378</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>601727</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>上海电气</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.65985146143575</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.2228</v>
+      </c>
+      <c r="F6" t="n">
+        <v>42.03980099502488</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
